--- a/1. 기능정리/Project06 - 요구사항 정의서 - 서희.xlsx
+++ b/1. 기능정리/Project06 - 요구사항 정의서 - 서희.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddn\Desktop\project06\1. 기능정리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC2D65-5AC6-4461-9B6F-D0ECF4736403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
     </ext>
@@ -23,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>현태</t>
   </si>
@@ -177,12 +189,6 @@
 HT – M - 003</t>
   </si>
   <si>
-    <t>HT – P - 004</t>
-  </si>
-  <si>
-    <t>HT – M - 004</t>
-  </si>
-  <si>
     <t>HT – P - 005</t>
   </si>
   <si>
@@ -207,30 +213,6 @@
     <t>KB – M - 008</t>
   </si>
   <si>
-    <t>HT – P - 009</t>
-  </si>
-  <si>
-    <t>HT – M - 009</t>
-  </si>
-  <si>
-    <t>HT – P - 010</t>
-  </si>
-  <si>
-    <t>HT – M - 010</t>
-  </si>
-  <si>
-    <t>HT – P - 011</t>
-  </si>
-  <si>
-    <t>HT – M - 011</t>
-  </si>
-  <si>
-    <t>KB – P – 013</t>
-  </si>
-  <si>
-    <t>KB – M – 013</t>
-  </si>
-  <si>
     <t>YS – P – 014
 YS – P – 015</t>
   </si>
@@ -249,11 +231,6 @@
 KB – P – 027</t>
   </si>
   <si>
-    <t>HJ – P – 028
-HJ – P – 029
-HJ – P – 030</t>
-  </si>
-  <si>
     <t>사용자</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -261,15 +238,193 @@
     <t>관리자</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입/로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마켓</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 정보</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마스터 관리자 : 관리자 권한 부여
+- 일반 관리자 : 일반 관리자 활동
+마스터 관리자는 일반 관리자에게 권한을 부여 할 수 있고, 일반 관리자는 권한에 따라 활동하되 활동 내역은 관리자 정보에서 확인 할 수 있음(ex. 업로드한 공지사항 목록, 공지사항 등록 날짜, 공지사항 수정 내역 등)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원 정보 확인, 회원 제재(1일 정지, 1주일 정지, 한달 정지, 영구 정지)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로젝트 정보 확인/ 프로젝트 관리
+- 관리자가 직접 프로젝트를 올릴 수 있고, 사용자가 올린 프로젝트를 포함한 모든 프로젝트에 관해 공개, 비공개 처리 및 내용 수정 가능
+- 프로젝트 오픈</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 프로젝트, 캐러셀 배너 순서 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트를 소개하는 캐러셀 배너, 추천 프로젝트 3개, 인기 프로젝트 3개, 신규 프로젝트 3개</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡, 구글 소셜 회원가입/로그인
+이메일 주소, 이름, 비밀번호만으로 회원가입
+이메일 주소, 비밀번호로 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자가 선택한 공지사항을 구분하여 표시, 공지사항 제목/내용/등록날짜/조회수</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정관련/프로젝트 등록 관련/투자 및 리워드 참여 관련 카테고리 별 FAQ 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 내가 오픈한 프로젝트, 내가 참여한 프로젝트, 법인 회원 업그레이드, 개인정보수정(주소, 휴대폰 번호, 계좌번호 등록), 예치금 충전, 예치금 이용 내역</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세페이지에 표시될 내용 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드형 : 프로젝트 제목, 상품명, 상품 소개, 리워드 보상 정보, 시작 날짜, 종료 날짜, 목표 금액, 최소 달성 금액, 회사 정보, 배송 예정일
+투자형 : 프로젝트 제목, 회사 소개, 수익금 분배 예정일, 시작 날짜, 종료 날짜, 목표 금액, 최소 달성 금액, 수익률(이자율)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상품 정보 페이지 : 상품명, 구매 갯수 선택, 배송 예정일, 회사명, 간략한 회사 소개, 상품 이미지, 상품 소개
+- 상품 결제 페이지 : 구매 정보, 최종 결제 금액
+- 결제 완료 페이지 : 무통장 입금 번호 안내</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 배너, 추천/인기/신규 프로젝트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 회원 가입 / 일반 회원 가입 간소화</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 FAQ</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드형/투자형 프로젝트 정보 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 관리, 예치금 관리, 프로젝트 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인 회원의 프로젝트 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 정보 확인 / 결제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터 관리자 / 일반 관리자 활동 내역</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 및 활동 내역 확인 / 회원 제재</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 CRUD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 및 수정 관리자 아이디 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 정보 확인, 프로젝트 오픈 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 프로젝트 선택, 배너 순서 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 결제 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드형/투자형 프로젝트 결제 정보 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드형 : 프로젝트 정보 배송 예정일, 종료 날짜, 주의사항, 금액 설정
+투자형 : 투자금액, 수익률(이자율), 수익금 배분 일정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -355,31 +510,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -407,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -662,24 +792,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -722,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -780,53 +894,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,27 +910,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,11 +1151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG991"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1085,7 +1163,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" customWidth="1"/>
+    <col min="4" max="4" width="113.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
@@ -1135,22 +1213,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1172,20 +1250,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1333,13 +1411,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1374,29 +1452,29 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19">
         <v>43854</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>43858</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>43859</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>43860</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>43861</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1419,21 +1497,27 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>50</v>
+      <c r="A9" s="43" t="s">
+        <v>39</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1461,20 +1545,26 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+    <row r="10" spans="1:33" ht="48.75" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1503,23 +1593,29 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="18">
-        <v>2</v>
+      <c r="A11" s="44"/>
+      <c r="B11" s="33" t="s">
+        <v>43</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="C11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="10" t="s">
@@ -1544,28 +1640,28 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="18">
-        <v>1</v>
+      <c r="A12" s="44"/>
+      <c r="B12" s="33" t="s">
+        <v>44</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>28</v>
+      <c r="C12" s="20" t="s">
+        <v>69</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>29</v>
+      <c r="D12" s="28" t="s">
+        <v>61</v>
       </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1584,21 +1680,27 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="18"/>
+    <row r="13" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
@@ -1619,21 +1721,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="18"/>
+    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
@@ -1654,28 +1762,34 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="18">
+    <row r="15" spans="1:33" ht="39" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="17">
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1696,27 +1810,33 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="18">
+      <c r="A16" s="44"/>
+      <c r="B16" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="17">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1736,28 +1856,34 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="18">
+    <row r="17" spans="1:33" ht="50.25" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="17">
         <v>1</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1777,29 +1903,33 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="18">
-        <v>2</v>
+    <row r="18" spans="1:33" ht="75.75" customHeight="1">
+      <c r="A18" s="51" t="s">
+        <v>40</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>36</v>
+      <c r="B18" s="33" t="s">
+        <v>49</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>37</v>
+      <c r="C18" s="26" t="s">
+        <v>74</v>
       </c>
+      <c r="D18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="17">
+        <v>3</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1818,28 +1948,34 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="18">
+    <row r="19" spans="1:33" ht="53.25" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="17">
         <v>1</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>38</v>
+      <c r="O19" s="11" t="s">
+        <v>34</v>
       </c>
-      <c r="P19" s="10" t="s">
-        <v>39</v>
+      <c r="P19" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1860,28 +1996,32 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="18">
-        <v>2</v>
+      <c r="A20" s="51"/>
+      <c r="B20" s="33" t="s">
+        <v>51</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>40</v>
+      <c r="C20" s="26" t="s">
+        <v>76</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>41</v>
+      <c r="D20" s="27" t="s">
+        <v>77</v>
       </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="17">
+        <v>3</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="10"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1900,29 +2040,33 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="18">
-        <v>1</v>
+    <row r="21" spans="1:33" ht="70.5" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="33" t="s">
+        <v>53</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>42</v>
+      <c r="C21" s="26" t="s">
+        <v>78</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>43</v>
+      <c r="D21" s="49" t="s">
+        <v>55</v>
       </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="17">
+        <v>3</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="14"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1941,27 +2085,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="46.5" customHeight="1">
-      <c r="A22" s="46" t="s">
-        <v>51</v>
+    <row r="22" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="33" t="s">
+        <v>56</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="18">
+      <c r="C22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="17">
         <v>3</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="15"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1980,29 +2130,17 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="53.25" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="18">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>45</v>
-      </c>
+    <row r="23" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2021,27 +2159,17 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="18">
-        <v>3</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="10"/>
+    <row r="24" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2060,27 +2188,20 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="18">
-        <v>3</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="14"/>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2099,27 +2220,23 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="18">
-        <v>3</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="16"/>
+    <row r="26" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2138,27 +2255,21 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="51.75" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="18">
-        <v>3</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="16"/>
+    <row r="27" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2177,25 +2288,25 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="18">
-        <v>3</v>
+    <row r="28" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2217,11 +2328,19 @@
     <row r="29" spans="1:33" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2246,11 +2365,19 @@
     <row r="30" spans="1:33" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2282,6 +2409,11 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
+      <c r="J31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2314,9 +2446,11 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2349,7 +2483,9 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="L33" s="17"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2382,11 +2518,9 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2419,11 +2553,9 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2456,11 +2588,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2493,11 +2623,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2530,11 +2658,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -9067,226 +9193,22 @@
       <c r="AF224" s="1"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
-      <c r="Y225" s="1"/>
-      <c r="Z225" s="1"/>
-      <c r="AA225" s="1"/>
-      <c r="AB225" s="1"/>
-      <c r="AC225" s="1"/>
-      <c r="AD225" s="1"/>
-      <c r="AE225" s="1"/>
-      <c r="AF225" s="1"/>
-      <c r="AG225" s="1"/>
-    </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
-      <c r="AB226" s="1"/>
-      <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
-      <c r="AE226" s="1"/>
-      <c r="AF226" s="1"/>
-      <c r="AG226" s="1"/>
-    </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
-      <c r="AB227" s="1"/>
-      <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
-      <c r="AE227" s="1"/>
-      <c r="AF227" s="1"/>
-      <c r="AG227" s="1"/>
-    </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-      <c r="AE228" s="1"/>
-      <c r="AF228" s="1"/>
-      <c r="AG228" s="1"/>
-    </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-      <c r="AE229" s="1"/>
-      <c r="AF229" s="1"/>
-      <c r="AG229" s="1"/>
-    </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-      <c r="AE230" s="1"/>
-      <c r="AF230" s="1"/>
-      <c r="AG230" s="1"/>
-    </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -10032,26 +9954,13 @@
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P28"/>
-  <mergeCells count="11">
+  <autoFilter ref="A7:P22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A9:A17"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A9:A21"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10060,7 +9969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
